--- a/Kehoachdoan.xlsx
+++ b/Kehoachdoan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>Bảng phân công kế hoạch thực hiện đồ án cuối năm:Demo các thao tác trên cây AVL</t>
   </si>
@@ -128,12 +128,6 @@
     <t>Xây dựng giao diện</t>
   </si>
   <si>
-    <t>Menu người dùng</t>
-  </si>
-  <si>
-    <t>Cây AVL dưới dạng đồ họa</t>
-  </si>
-  <si>
     <t>Tổng kết</t>
   </si>
   <si>
@@ -165,6 +159,45 @@
   </si>
   <si>
     <t>30/09/2018</t>
+  </si>
+  <si>
+    <t>Cây AVL dưới dạng đồ họa:</t>
+  </si>
+  <si>
+    <t>Tìm hiểu cách sử dụng windown flatform</t>
+  </si>
+  <si>
+    <t>Demo vẽ từng nút trên cây</t>
+  </si>
+  <si>
+    <t>Demo việc thực hiện các thao tác trên flat form</t>
+  </si>
+  <si>
+    <t>Menu người dùng:</t>
+  </si>
+  <si>
+    <t>Giao diện lựa chọn thao tác</t>
+  </si>
+  <si>
+    <t>Giao diện chạy chương trình</t>
+  </si>
+  <si>
+    <t>Sửa lỗi và tối ưu</t>
+  </si>
+  <si>
+    <t>Kiểm tra chương trình:</t>
+  </si>
+  <si>
+    <t>Tìm lỗi chuơng trình và đề giải pháp</t>
+  </si>
+  <si>
+    <t>Đề xuất cái thiện giao diện(nếu có)</t>
+  </si>
+  <si>
+    <t>13/10/2018</t>
+  </si>
+  <si>
+    <t>15/10/2018</t>
   </si>
 </sst>
 </file>
@@ -221,25 +254,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -251,10 +284,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -263,13 +296,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -291,18 +324,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I24" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A2:I24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I32" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A2:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="STT" dataDxfId="9"/>
-    <tableColumn id="2" name="Các thao tác" dataDxfId="8"/>
-    <tableColumn id="3" name="Phần việc cụ thể" dataDxfId="3"/>
-    <tableColumn id="4" name="Phước Toàn" dataDxfId="2"/>
-    <tableColumn id="5" name="Ngoc Nhi" dataDxfId="0"/>
-    <tableColumn id="6" name="Ngày bắt đầu(dự tính)" dataDxfId="1"/>
+    <tableColumn id="1" name="STT" dataDxfId="0"/>
+    <tableColumn id="2" name="Các thao tác" dataDxfId="1"/>
+    <tableColumn id="3" name="Phần việc cụ thể" dataDxfId="8"/>
+    <tableColumn id="4" name="Phước Toàn" dataDxfId="7"/>
+    <tableColumn id="5" name="Ngoc Nhi" dataDxfId="6"/>
+    <tableColumn id="6" name="Ngày bắt đầu(dự tính)" dataDxfId="5"/>
     <tableColumn id="7" name="Ngày hoàn thành(dự tính)" dataDxfId="4"/>
-    <tableColumn id="8" name="Ngày bắt đầu(thực)" dataDxfId="5"/>
-    <tableColumn id="9" name="Ngày hoàn thành(thực)" dataDxfId="7"/>
+    <tableColumn id="8" name="Ngày bắt đầu(thực)" dataDxfId="3"/>
+    <tableColumn id="9" name="Ngày hoàn thành(thực)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -571,17 +604,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" customWidth="1"/>
@@ -591,17 +624,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -633,432 +666,582 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="6">
+        <v>43110</v>
+      </c>
+      <c r="G21" s="6">
+        <v>43353</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="6">
+        <v>43110</v>
+      </c>
+      <c r="G22" s="6">
+        <v>43353</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="6">
+        <v>43110</v>
+      </c>
+      <c r="G23" s="6">
+        <v>43353</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6">
+        <v>43110</v>
+      </c>
+      <c r="G24" s="6">
+        <v>43353</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="6">
+        <v>43110</v>
+      </c>
+      <c r="G25" s="6">
+        <v>43353</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="6">
+        <v>43110</v>
+      </c>
+      <c r="G26" s="6">
+        <v>43353</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="6">
+        <v>43110</v>
+      </c>
+      <c r="G27" s="6">
+        <v>43353</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="6">
+        <v>43353</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="6">
+        <v>43353</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="6">
+        <v>43353</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="9">
-        <v>43110</v>
-      </c>
-      <c r="G21" s="9">
-        <v>43169</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="9">
-        <v>43110</v>
-      </c>
-      <c r="G22" s="9">
-        <v>43169</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+      <c r="D31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="9">
-        <v>43230</v>
-      </c>
-      <c r="G23" s="9">
-        <v>43261</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="9">
-        <v>43230</v>
-      </c>
-      <c r="G24" s="9">
-        <v>43261</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Kehoachdoan.xlsx
+++ b/Kehoachdoan.xlsx
@@ -266,13 +266,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -280,12 +280,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -310,6 +304,12 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -327,15 +327,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I32" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A2:I32"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="STT" dataDxfId="0"/>
-    <tableColumn id="2" name="Các thao tác" dataDxfId="1"/>
-    <tableColumn id="3" name="Phần việc cụ thể" dataDxfId="8"/>
-    <tableColumn id="4" name="Phước Toàn" dataDxfId="7"/>
-    <tableColumn id="5" name="Ngoc Nhi" dataDxfId="6"/>
-    <tableColumn id="6" name="Ngày bắt đầu(dự tính)" dataDxfId="5"/>
-    <tableColumn id="7" name="Ngày hoàn thành(dự tính)" dataDxfId="4"/>
-    <tableColumn id="8" name="Ngày bắt đầu(thực)" dataDxfId="3"/>
-    <tableColumn id="9" name="Ngày hoàn thành(thực)" dataDxfId="2"/>
+    <tableColumn id="1" name="STT" dataDxfId="8"/>
+    <tableColumn id="2" name="Các thao tác" dataDxfId="7"/>
+    <tableColumn id="3" name="Phần việc cụ thể" dataDxfId="6"/>
+    <tableColumn id="4" name="Phước Toàn" dataDxfId="5"/>
+    <tableColumn id="5" name="Ngoc Nhi" dataDxfId="4"/>
+    <tableColumn id="6" name="Ngày bắt đầu(dự tính)" dataDxfId="3"/>
+    <tableColumn id="7" name="Ngày hoàn thành(dự tính)" dataDxfId="2"/>
+    <tableColumn id="8" name="Ngày bắt đầu(thực)" dataDxfId="1"/>
+    <tableColumn id="9" name="Ngày hoàn thành(thực)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -606,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -624,17 +624,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -666,7 +666,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -689,7 +689,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4" t="s">
         <v>12</v>

--- a/Kehoachdoan.xlsx
+++ b/Kehoachdoan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t>Bảng phân công kế hoạch thực hiện đồ án cuối năm:Demo các thao tác trên cây AVL</t>
   </si>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1049,9 @@
         <v>50</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" s="6">
         <v>43110</v>
       </c>
@@ -1065,7 +1067,9 @@
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="6">
         <v>43110</v>
@@ -1101,7 +1105,9 @@
       <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="6">
         <v>43110</v>
@@ -1119,7 +1125,9 @@
         <v>47</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F26" s="6">
         <v>43110</v>
       </c>
@@ -1135,7 +1143,9 @@
       <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="6">
         <v>43110</v>
@@ -1157,7 +1167,9 @@
         <v>53</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" s="6">
         <v>43353</v>
       </c>
@@ -1173,7 +1185,9 @@
       <c r="C29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="6">
         <v>43353</v>
@@ -1191,7 +1205,9 @@
         <v>55</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F30" s="6">
         <v>43353</v>
       </c>

--- a/Kehoachdoan.xlsx
+++ b/Kehoachdoan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="60">
   <si>
     <t>Bảng phân công kế hoạch thực hiện đồ án cuối năm:Demo các thao tác trên cây AVL</t>
   </si>
@@ -146,18 +146,6 @@
     <t>21/09//2018</t>
   </si>
   <si>
-    <t>23/09/2018</t>
-  </si>
-  <si>
-    <t>24/09/2018</t>
-  </si>
-  <si>
-    <t>27/09/2018</t>
-  </si>
-  <si>
-    <t>28/09/2018</t>
-  </si>
-  <si>
     <t>30/09/2018</t>
   </si>
   <si>
@@ -170,9 +158,6 @@
     <t>Demo vẽ từng nút trên cây</t>
   </si>
   <si>
-    <t>Demo việc thực hiện các thao tác trên flat form</t>
-  </si>
-  <si>
     <t>Menu người dùng:</t>
   </si>
   <si>
@@ -198,6 +183,27 @@
   </si>
   <si>
     <t>15/10/2018</t>
+  </si>
+  <si>
+    <t>Demo việc thực hiện các thao tác trên flat form:</t>
+  </si>
+  <si>
+    <t>Chạy hoạt ảnh thao tác quay:</t>
+  </si>
+  <si>
+    <t>Di chuyển nút trên màn hình</t>
+  </si>
+  <si>
+    <t>Tương tác khi thực hiện các thao tác với cây(nút di chuyển, điều hướng)</t>
+  </si>
+  <si>
+    <t>Demo vẽ các nhánh với các phần tử cụ thể</t>
+  </si>
+  <si>
+    <t>22/09/2018</t>
+  </si>
+  <si>
+    <t>26/09/2018</t>
   </si>
 </sst>
 </file>
@@ -246,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,10 +269,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -287,9 +296,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -324,8 +335,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I32" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A2:I32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I36" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A2:I36"/>
   <tableColumns count="9">
     <tableColumn id="1" name="STT" dataDxfId="8"/>
     <tableColumn id="2" name="Các thao tác" dataDxfId="7"/>
@@ -604,17 +615,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" customWidth="1"/>
@@ -624,17 +635,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -666,7 +677,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -681,15 +692,17 @@
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -700,10 +713,12 @@
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
@@ -721,11 +736,11 @@
         <v>13</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
+      <c r="F5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -740,11 +755,11 @@
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>40</v>
+      <c r="G6" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -759,11 +774,11 @@
         <v>13</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>40</v>
+      <c r="F7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -782,11 +797,11 @@
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>40</v>
+      <c r="F8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -801,11 +816,11 @@
         <v>13</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>40</v>
+      <c r="F9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -820,8 +835,8 @@
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
@@ -835,11 +850,11 @@
         <v>13</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
+      <c r="F11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -854,11 +869,11 @@
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>42</v>
+      <c r="F12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -873,11 +888,11 @@
         <v>13</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>42</v>
+      <c r="F13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -892,11 +907,11 @@
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>42</v>
+      <c r="F14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -915,11 +930,11 @@
         <v>13</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>44</v>
+      <c r="F15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -934,11 +949,11 @@
       <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>44</v>
+      <c r="F16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -953,11 +968,11 @@
         <v>13</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>44</v>
+      <c r="F17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -972,11 +987,11 @@
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>44</v>
+      <c r="F18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -991,11 +1006,11 @@
         <v>13</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>44</v>
+      <c r="F19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1010,11 +1025,11 @@
       <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>44</v>
+      <c r="F20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1027,17 +1042,17 @@
         <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="6">
-        <v>43110</v>
-      </c>
-      <c r="G21" s="6">
-        <v>43353</v>
+      <c r="F21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1046,17 +1061,17 @@
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="6">
-        <v>43110</v>
-      </c>
-      <c r="G22" s="6">
-        <v>43353</v>
+      <c r="F22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1065,17 +1080,17 @@
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="6">
-        <v>43110</v>
-      </c>
-      <c r="G23" s="6">
-        <v>43353</v>
+      <c r="F23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1084,16 +1099,16 @@
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="6">
-        <v>43110</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="F24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="8">
         <v>43353</v>
       </c>
       <c r="H24" s="4"/>
@@ -1103,16 +1118,16 @@
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="6">
-        <v>43110</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="F25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="8">
         <v>43353</v>
       </c>
       <c r="H25" s="4"/>
@@ -1122,142 +1137,218 @@
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="6">
-        <v>43110</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="8">
         <v>43353</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="6">
-        <v>43110</v>
-      </c>
-      <c r="G27" s="6">
+        <v>57</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="8">
         <v>43353</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>6</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="D28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="8">
         <v>43353</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="6">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="8">
         <v>43353</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="D30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="8">
         <v>43353</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>7</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A31" s="7"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>57</v>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="8">
+        <v>43353</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="3">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="C32" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>57</v>
+      <c r="F32" s="8">
+        <v>43353</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="8">
+        <v>43353</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="8">
+        <v>43353</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Kehoachdoan.xlsx
+++ b/Kehoachdoan.xlsx
@@ -252,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,6 +276,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -617,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,17 +638,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -698,8 +701,12 @@
       <c r="G3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="8">
+        <v>43363</v>
+      </c>
+      <c r="I3" s="8">
+        <v>43364</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -719,8 +726,12 @@
       <c r="G4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I4" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -742,8 +753,12 @@
       <c r="G5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I5" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -761,8 +776,12 @@
       <c r="G6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I6" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -780,8 +799,12 @@
       <c r="G7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I7" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -803,8 +826,12 @@
       <c r="G8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I8" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -822,8 +849,12 @@
       <c r="G9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I9" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -837,8 +868,8 @@
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -856,8 +887,12 @@
       <c r="G11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I11" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -875,8 +910,12 @@
       <c r="G12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I12" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -894,8 +933,12 @@
       <c r="G13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I13" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -913,8 +956,12 @@
       <c r="G14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="H14" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I14" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -936,8 +983,12 @@
       <c r="G15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I15" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -955,8 +1006,12 @@
       <c r="G16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I16" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -974,8 +1029,12 @@
       <c r="G17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="H17" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I17" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -993,8 +1052,12 @@
       <c r="G18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I18" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1012,8 +1075,12 @@
       <c r="G19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I19" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1031,8 +1098,12 @@
       <c r="G20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="H20" s="8">
+        <v>43372</v>
+      </c>
+      <c r="I20" s="8">
+        <v>43374</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">

--- a/Kehoachdoan.xlsx
+++ b/Kehoachdoan.xlsx
@@ -621,7 +621,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I20"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,9 +779,7 @@
       <c r="H6" s="8">
         <v>43372</v>
       </c>
-      <c r="I6" s="8">
-        <v>43374</v>
-      </c>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -802,9 +800,7 @@
       <c r="H7" s="8">
         <v>43372</v>
       </c>
-      <c r="I7" s="8">
-        <v>43374</v>
-      </c>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -829,9 +825,7 @@
       <c r="H8" s="8">
         <v>43372</v>
       </c>
-      <c r="I8" s="8">
-        <v>43374</v>
-      </c>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -852,9 +846,7 @@
       <c r="H9" s="8">
         <v>43372</v>
       </c>
-      <c r="I9" s="8">
-        <v>43374</v>
-      </c>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -890,9 +882,7 @@
       <c r="H11" s="8">
         <v>43372</v>
       </c>
-      <c r="I11" s="8">
-        <v>43374</v>
-      </c>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -913,9 +903,7 @@
       <c r="H12" s="8">
         <v>43372</v>
       </c>
-      <c r="I12" s="8">
-        <v>43374</v>
-      </c>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -936,9 +924,7 @@
       <c r="H13" s="8">
         <v>43372</v>
       </c>
-      <c r="I13" s="8">
-        <v>43374</v>
-      </c>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -959,9 +945,7 @@
       <c r="H14" s="8">
         <v>43372</v>
       </c>
-      <c r="I14" s="8">
-        <v>43374</v>
-      </c>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
